--- a/tests/resources/test.xlsx
+++ b/tests/resources/test.xlsx
@@ -29,33 +29,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>{{id}}</t>
-  </si>
-  <si>
-    <t>id的二维码</t>
-  </si>
-  <si>
-    <t>{{id.二维码}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>{{name}}</t>
   </si>
   <si>
     <t>hello 你好</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>{{name.png}}</t>
+    <t>芜湖起飞</t>
   </si>
   <si>
     <t>{{name.二维码}}</t>
   </si>
   <si>
-    <t>大大</t>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>{{age}}</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>{{img.png}}</t>
+  </si>
+  <si>
+    <t>图片2</t>
+  </si>
+  <si>
+    <t>{{img2.图片}}</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>{{url.二维码}}</t>
   </si>
 </sst>
 </file>
@@ -68,19 +83,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -529,7 +538,9 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,144 +556,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -736,7 +745,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -780,15 +789,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,167 +867,132 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1029,376 +1003,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:L43"/>
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.0083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.575" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="26" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
+    <row r="4" ht="20" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1"/>
-    <row r="6" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" ht="21" customHeight="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" ht="21" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" ht="36" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1408,15 +1125,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1426,6 +1142,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/tests/resources/test.xlsx
+++ b/tests/resources/test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>测试</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>{{url.二维码}}</t>
+  </si>
+  <si>
+    <t>{{age.转换}}</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1095,8 +1098,18 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:B3"/>
@@ -1106,6 +1119,7 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tests/resources/test.xlsx
+++ b/tests/resources/test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>测试</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>{{age.转换}}</t>
+  </si>
+  <si>
+    <t>看看怎么个事</t>
+  </si>
+  <si>
+    <t>欧耶</t>
+  </si>
+  <si>
+    <t>rust真难</t>
   </si>
 </sst>
 </file>
@@ -86,9 +95,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -559,142 +575,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,20 +1032,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:4">
+    <row r="1" ht="58" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,88 +1053,108 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="42" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" ht="31" customHeight="1" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="24" ht="22.5" spans="6:6">
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:B3"/>
@@ -1120,6 +1165,9 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
